--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Dkk2-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Dkk2</t>
   </si>
   <si>
     <t>Lrp5</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H2">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.272507792271</v>
+        <v>17.82379233333333</v>
       </c>
       <c r="N2">
-        <v>17.272507792271</v>
+        <v>53.471377</v>
       </c>
       <c r="O2">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711466</v>
       </c>
       <c r="P2">
-        <v>0.4222808857170381</v>
+        <v>0.4233776263711467</v>
       </c>
       <c r="Q2">
-        <v>72.14974458854434</v>
+        <v>4.221785040922111</v>
       </c>
       <c r="R2">
-        <v>72.14974458854434</v>
+        <v>37.996065368299</v>
       </c>
       <c r="S2">
-        <v>0.4222808857170381</v>
+        <v>0.02194787846890836</v>
       </c>
       <c r="T2">
-        <v>0.4222808857170381</v>
+        <v>0.02194787846890837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H3">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2989759117674</v>
+        <v>10.453073</v>
       </c>
       <c r="N3">
-        <v>10.2989759117674</v>
+        <v>31.359219</v>
       </c>
       <c r="O3">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="P3">
-        <v>0.2517909224476176</v>
+        <v>0.2482971722436279</v>
       </c>
       <c r="Q3">
-        <v>43.02030084421745</v>
+        <v>2.475939261283667</v>
       </c>
       <c r="R3">
-        <v>43.02030084421745</v>
+        <v>22.283453351553</v>
       </c>
       <c r="S3">
-        <v>0.2517909224476176</v>
+        <v>0.01287171503909245</v>
       </c>
       <c r="T3">
-        <v>0.2517909224476176</v>
+        <v>0.01287171503909245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H4">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.1798745449214</v>
+        <v>4.27602</v>
       </c>
       <c r="N4">
-        <v>4.1798745449214</v>
+        <v>12.82806</v>
       </c>
       <c r="O4">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="P4">
-        <v>0.1021902057444918</v>
+        <v>0.1015704830969034</v>
       </c>
       <c r="Q4">
-        <v>17.45993601248713</v>
+        <v>1.01282807458</v>
       </c>
       <c r="R4">
-        <v>17.45993601248713</v>
+        <v>9.11545267122</v>
       </c>
       <c r="S4">
-        <v>0.1021902057444918</v>
+        <v>0.005265409601698953</v>
       </c>
       <c r="T4">
-        <v>0.1021902057444918</v>
+        <v>0.005265409601698956</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.17714355415312</v>
+        <v>0.2368623333333333</v>
       </c>
       <c r="H5">
-        <v>4.17714355415312</v>
+        <v>0.710587</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.05183995823545984</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.05183995823545985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.27069171093601</v>
+        <v>6.530620666666667</v>
       </c>
       <c r="N5">
-        <v>6.27069171093601</v>
+        <v>19.591862</v>
       </c>
       <c r="O5">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="P5">
-        <v>0.1533068203875673</v>
+        <v>0.1551251621919343</v>
       </c>
       <c r="Q5">
-        <v>26.19357946041775</v>
+        <v>1.546858049221555</v>
       </c>
       <c r="R5">
-        <v>26.19357946041775</v>
+        <v>13.921722442994</v>
       </c>
       <c r="S5">
-        <v>0.1533068203875673</v>
+        <v>0.008041681929298808</v>
       </c>
       <c r="T5">
-        <v>0.1533068203875673</v>
+        <v>0.008041681929298808</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,991 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.2368623333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.710587</v>
+      </c>
+      <c r="I6">
+        <v>0.05183995823545984</v>
+      </c>
+      <c r="J6">
+        <v>0.05183995823545985</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>3.015535666666667</v>
+      </c>
+      <c r="N6">
+        <v>9.046607</v>
+      </c>
+      <c r="O6">
+        <v>0.07162955609638778</v>
+      </c>
+      <c r="P6">
+        <v>0.07162955609638778</v>
+      </c>
+      <c r="Q6">
+        <v>0.7142668142565555</v>
+      </c>
+      <c r="R6">
+        <v>6.428401328309</v>
+      </c>
+      <c r="S6">
+        <v>0.00371327319646127</v>
+      </c>
+      <c r="T6">
+        <v>0.003713273196461271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H7">
+        <v>12.702779</v>
+      </c>
+      <c r="I7">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J7">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>17.82379233333333</v>
+      </c>
+      <c r="N7">
+        <v>53.471377</v>
+      </c>
+      <c r="O7">
+        <v>0.4233776263711466</v>
+      </c>
+      <c r="P7">
+        <v>0.4233776263711467</v>
+      </c>
+      <c r="Q7">
+        <v>75.47056498407589</v>
+      </c>
+      <c r="R7">
+        <v>679.235084856683</v>
+      </c>
+      <c r="S7">
+        <v>0.3923503381139837</v>
+      </c>
+      <c r="T7">
+        <v>0.3923503381139837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H8">
+        <v>12.702779</v>
+      </c>
+      <c r="I8">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J8">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.453073</v>
+      </c>
+      <c r="N8">
+        <v>31.359219</v>
+      </c>
+      <c r="O8">
+        <v>0.2482971722436279</v>
+      </c>
+      <c r="P8">
+        <v>0.2482971722436279</v>
+      </c>
+      <c r="Q8">
+        <v>44.26102539662233</v>
+      </c>
+      <c r="R8">
+        <v>398.349228569601</v>
+      </c>
+      <c r="S8">
+        <v>0.2301006794278079</v>
+      </c>
+      <c r="T8">
+        <v>0.2301006794278079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H9">
+        <v>12.702779</v>
+      </c>
+      <c r="I9">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J9">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.27602</v>
+      </c>
+      <c r="N9">
+        <v>12.82806</v>
+      </c>
+      <c r="O9">
+        <v>0.1015704830969034</v>
+      </c>
+      <c r="P9">
+        <v>0.1015704830969034</v>
+      </c>
+      <c r="Q9">
+        <v>18.10577901986</v>
+      </c>
+      <c r="R9">
+        <v>162.95201117874</v>
+      </c>
+      <c r="S9">
+        <v>0.09412687611068009</v>
+      </c>
+      <c r="T9">
+        <v>0.09412687611068012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H10">
+        <v>12.702779</v>
+      </c>
+      <c r="I10">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J10">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.530620666666667</v>
+      </c>
+      <c r="N10">
+        <v>19.591862</v>
+      </c>
+      <c r="O10">
+        <v>0.1551251621919343</v>
+      </c>
+      <c r="P10">
+        <v>0.1551251621919343</v>
+      </c>
+      <c r="Q10">
+        <v>27.65234368716644</v>
+      </c>
+      <c r="R10">
+        <v>248.871093184498</v>
+      </c>
+      <c r="S10">
+        <v>0.1437567930966601</v>
+      </c>
+      <c r="T10">
+        <v>0.1437567930966601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.234259666666667</v>
+      </c>
+      <c r="H11">
+        <v>12.702779</v>
+      </c>
+      <c r="I11">
+        <v>0.9267148608604947</v>
+      </c>
+      <c r="J11">
+        <v>0.9267148608604948</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>3.015535666666667</v>
+      </c>
+      <c r="N11">
+        <v>9.046607</v>
+      </c>
+      <c r="O11">
+        <v>0.07162955609638778</v>
+      </c>
+      <c r="P11">
+        <v>0.07162955609638778</v>
+      </c>
+      <c r="Q11">
+        <v>12.76856104676144</v>
+      </c>
+      <c r="R11">
+        <v>114.917049420853</v>
+      </c>
+      <c r="S11">
+        <v>0.066380174111363</v>
+      </c>
+      <c r="T11">
+        <v>0.06638017411136302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.213922</v>
+      </c>
+      <c r="I12">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J12">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>17.82379233333333</v>
+      </c>
+      <c r="N12">
+        <v>53.471377</v>
+      </c>
+      <c r="O12">
+        <v>0.4233776263711466</v>
+      </c>
+      <c r="P12">
+        <v>0.4233776263711467</v>
+      </c>
+      <c r="Q12">
+        <v>1.270967101177111</v>
+      </c>
+      <c r="R12">
+        <v>11.438703910594</v>
+      </c>
+      <c r="S12">
+        <v>0.006607402130669172</v>
+      </c>
+      <c r="T12">
+        <v>0.006607402130669174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.213922</v>
+      </c>
+      <c r="I13">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J13">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.453073</v>
+      </c>
+      <c r="N13">
+        <v>31.359219</v>
+      </c>
+      <c r="O13">
+        <v>0.2482971722436279</v>
+      </c>
+      <c r="P13">
+        <v>0.2482971722436279</v>
+      </c>
+      <c r="Q13">
+        <v>0.7453807607686667</v>
+      </c>
+      <c r="R13">
+        <v>6.708426846918</v>
+      </c>
+      <c r="S13">
+        <v>0.00387502589351161</v>
+      </c>
+      <c r="T13">
+        <v>0.003875025893511611</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.17714355415312</v>
-      </c>
-      <c r="H6">
-        <v>4.17714355415312</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2.88083808568094</v>
-      </c>
-      <c r="N6">
-        <v>2.88083808568094</v>
-      </c>
-      <c r="O6">
-        <v>0.07043116570328521</v>
-      </c>
-      <c r="P6">
-        <v>0.07043116570328521</v>
-      </c>
-      <c r="Q6">
-        <v>12.03367424016095</v>
-      </c>
-      <c r="R6">
-        <v>12.03367424016095</v>
-      </c>
-      <c r="S6">
-        <v>0.07043116570328521</v>
-      </c>
-      <c r="T6">
-        <v>0.07043116570328521</v>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.213922</v>
+      </c>
+      <c r="I14">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J14">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.27602</v>
+      </c>
+      <c r="N14">
+        <v>12.82806</v>
+      </c>
+      <c r="O14">
+        <v>0.1015704830969034</v>
+      </c>
+      <c r="P14">
+        <v>0.1015704830969034</v>
+      </c>
+      <c r="Q14">
+        <v>0.30491158348</v>
+      </c>
+      <c r="R14">
+        <v>2.74420425132</v>
+      </c>
+      <c r="S14">
+        <v>0.00158514995745017</v>
+      </c>
+      <c r="T14">
+        <v>0.00158514995745017</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.213922</v>
+      </c>
+      <c r="I15">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J15">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.530620666666667</v>
+      </c>
+      <c r="N15">
+        <v>19.591862</v>
+      </c>
+      <c r="O15">
+        <v>0.1551251621919343</v>
+      </c>
+      <c r="P15">
+        <v>0.1551251621919343</v>
+      </c>
+      <c r="Q15">
+        <v>0.4656811447515555</v>
+      </c>
+      <c r="R15">
+        <v>4.191130302764</v>
+      </c>
+      <c r="S15">
+        <v>0.002420945896391941</v>
+      </c>
+      <c r="T15">
+        <v>0.002420945896391941</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.07130733333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.213922</v>
+      </c>
+      <c r="I16">
+        <v>0.01560640364324993</v>
+      </c>
+      <c r="J16">
+        <v>0.01560640364324994</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.015535666666667</v>
+      </c>
+      <c r="N16">
+        <v>9.046607</v>
+      </c>
+      <c r="O16">
+        <v>0.07162955609638778</v>
+      </c>
+      <c r="P16">
+        <v>0.07162955609638778</v>
+      </c>
+      <c r="Q16">
+        <v>0.2150298069615555</v>
+      </c>
+      <c r="R16">
+        <v>1.935268262654</v>
+      </c>
+      <c r="S16">
+        <v>0.001117879765227042</v>
+      </c>
+      <c r="T16">
+        <v>0.001117879765227042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.026678</v>
+      </c>
+      <c r="H17">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J17">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.82379233333333</v>
+      </c>
+      <c r="N17">
+        <v>53.471377</v>
+      </c>
+      <c r="O17">
+        <v>0.4233776263711466</v>
+      </c>
+      <c r="P17">
+        <v>0.4233776263711467</v>
+      </c>
+      <c r="Q17">
+        <v>0.4755031318686666</v>
+      </c>
+      <c r="R17">
+        <v>4.279528186818</v>
+      </c>
+      <c r="S17">
+        <v>0.002472007657585365</v>
+      </c>
+      <c r="T17">
+        <v>0.002472007657585366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.026678</v>
+      </c>
+      <c r="H18">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J18">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.453073</v>
+      </c>
+      <c r="N18">
+        <v>31.359219</v>
+      </c>
+      <c r="O18">
+        <v>0.2482971722436279</v>
+      </c>
+      <c r="P18">
+        <v>0.2482971722436279</v>
+      </c>
+      <c r="Q18">
+        <v>0.278867081494</v>
+      </c>
+      <c r="R18">
+        <v>2.509803733446</v>
+      </c>
+      <c r="S18">
+        <v>0.001449751883215883</v>
+      </c>
+      <c r="T18">
+        <v>0.001449751883215884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.026678</v>
+      </c>
+      <c r="H19">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J19">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4.27602</v>
+      </c>
+      <c r="N19">
+        <v>12.82806</v>
+      </c>
+      <c r="O19">
+        <v>0.1015704830969034</v>
+      </c>
+      <c r="P19">
+        <v>0.1015704830969034</v>
+      </c>
+      <c r="Q19">
+        <v>0.11407566156</v>
+      </c>
+      <c r="R19">
+        <v>1.02668095404</v>
+      </c>
+      <c r="S19">
+        <v>0.0005930474270741992</v>
+      </c>
+      <c r="T19">
+        <v>0.0005930474270741995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.026678</v>
+      </c>
+      <c r="H20">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J20">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.530620666666667</v>
+      </c>
+      <c r="N20">
+        <v>19.591862</v>
+      </c>
+      <c r="O20">
+        <v>0.1551251621919343</v>
+      </c>
+      <c r="P20">
+        <v>0.1551251621919343</v>
+      </c>
+      <c r="Q20">
+        <v>0.1742238981453333</v>
+      </c>
+      <c r="R20">
+        <v>1.568015083308</v>
+      </c>
+      <c r="S20">
+        <v>0.0009057412695834582</v>
+      </c>
+      <c r="T20">
+        <v>0.0009057412695834583</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.026678</v>
+      </c>
+      <c r="H21">
+        <v>0.08003399999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.00583877726079536</v>
+      </c>
+      <c r="J21">
+        <v>0.005838777260795362</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.015535666666667</v>
+      </c>
+      <c r="N21">
+        <v>9.046607</v>
+      </c>
+      <c r="O21">
+        <v>0.07162955609638778</v>
+      </c>
+      <c r="P21">
+        <v>0.07162955609638778</v>
+      </c>
+      <c r="Q21">
+        <v>0.08044846051533332</v>
+      </c>
+      <c r="R21">
+        <v>0.7240361446379999</v>
+      </c>
+      <c r="S21">
+        <v>0.0004182290233364546</v>
+      </c>
+      <c r="T21">
+        <v>0.0004182290233364548</v>
       </c>
     </row>
   </sheetData>
